--- a/Dataset/Kaggle/results/ml6/no_best.xlsx
+++ b/Dataset/Kaggle/results/ml6/no_best.xlsx
@@ -488,19 +488,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5351624493455767</v>
+        <v>0.5883682667866696</v>
       </c>
       <c r="E2" t="n">
         <v>424.6522300557352</v>
       </c>
       <c r="F2" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22160282152955</v>
+        <v>2.275109625253359</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9464232068449225</v>
+        <v>0.9397243052853164</v>
       </c>
     </row>
     <row r="3">
@@ -516,19 +516,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5753006587525961</v>
+        <v>0.5883682667866696</v>
       </c>
       <c r="E3" t="n">
-        <v>475.2159093223291</v>
+        <v>475.6604560138044</v>
       </c>
       <c r="F3" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G3" t="n">
-        <v>2.222025309288128</v>
+        <v>2.27408834330227</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9416190397027688</v>
+        <v>0.9386480917701472</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5902829123495892</v>
+        <v>0.7622187650611084</v>
       </c>
       <c r="E4" t="n">
         <v>538.8531996506637</v>
       </c>
       <c r="F4" t="n">
-        <v>15.59733038512018</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G4" t="n">
-        <v>2.221592158612999</v>
+        <v>2.311185727946353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9344360892862447</v>
+        <v>0.9086553964049511</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5902829123495892</v>
+        <v>0.7690259378778461</v>
       </c>
       <c r="E5" t="n">
         <v>539.2604618420776</v>
       </c>
       <c r="F5" t="n">
-        <v>10.95200491102514</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G5" t="n">
-        <v>2.310833453076991</v>
+        <v>2.311330422026868</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9344360892862447</v>
+        <v>0.908602367718286</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8238091596570924</v>
+        <v>0.8570962420314223</v>
       </c>
       <c r="E6" t="n">
-        <v>614.7376195061562</v>
+        <v>614.3613833194573</v>
       </c>
       <c r="F6" t="n">
-        <v>12.16485231192758</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G6" t="n">
-        <v>2.278986446087302</v>
+        <v>2.311904957223228</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9223048661748533</v>
+        <v>0.9027768196033616</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Kaggle/results/ml6/no_best.xlsx
+++ b/Dataset/Kaggle/results/ml6/no_best.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,136 +482,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5883682667866696</v>
+        <v>0.8570962420314223</v>
       </c>
       <c r="E2" t="n">
-        <v>424.6522300557352</v>
+        <v>614.3613833194573</v>
       </c>
       <c r="F2" t="n">
-        <v>5.740468830768526</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G2" t="n">
-        <v>2.275109625253359</v>
+        <v>2.311904957223228</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9397243052853164</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5883682667866696</v>
-      </c>
-      <c r="E3" t="n">
-        <v>475.6604560138044</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.740468830768526</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.27408834330227</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9386480917701472</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7622187650611084</v>
-      </c>
-      <c r="E4" t="n">
-        <v>538.8531996506637</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.305957406282569</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.311185727946353</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9086553964049511</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7690259378778461</v>
-      </c>
-      <c r="E5" t="n">
-        <v>539.2604618420776</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.305957406282569</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.311330422026868</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.908602367718286</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8570962420314223</v>
-      </c>
-      <c r="E6" t="n">
-        <v>614.3613833194573</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.305957406282569</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.311904957223228</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.9027768196033616</v>
       </c>
     </row>
